--- a/DaySale_2025-05-26_19-25.xlsx
+++ b/DaySale_2025-05-26_19-25.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -197,9 +209,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -212,6 +221,15 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -221,6 +239,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -245,9 +272,6 @@
     <t>NASSAR 12*8 F.C. TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -378,6 +402,15 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t>مجموعه لونا 3 قطع</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
   </si>
   <si>
     <t>Monday, 26 May, 2025 7:25 PM</t>
@@ -1071,7 +1104,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1080,14 +1113,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1104,7 +1137,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1120,7 +1153,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1130,14 +1163,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1146,14 +1179,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1163,14 +1196,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,14 +1212,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1203,7 +1236,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1219,7 +1252,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1229,14 +1262,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1245,14 +1278,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1269,7 +1302,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1278,14 +1311,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1295,14 +1328,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1311,14 +1344,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1328,14 +1361,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1351,7 +1384,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1361,14 +1394,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1377,14 +1410,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1417,7 +1450,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,11 +1460,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1443,14 +1476,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1467,7 +1500,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1483,7 +1516,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1493,14 +1526,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,7 +1566,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1549,7 +1582,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1566,7 +1599,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1582,7 +1615,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,14 +1625,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,11 +1658,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1641,14 +1674,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1691,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1707,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1724,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,7 +1740,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1724,14 +1757,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1773,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1790,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1806,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,14 +1823,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,31 +1839,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1872,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,14 +1889,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,14 +1905,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1922,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,31 +1938,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1971,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,14 +1988,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,14 +2004,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +2021,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,31 +2037,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,66 +2070,198 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>122</v>
       </c>
-      <c t="s" r="Q38" s="12">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>123</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>14</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>106</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>26</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>106</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>129</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>131</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>2202.1900000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>123</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>124</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>125</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>106</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>132</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2435.1900000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>134</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>135</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>136</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2265,10 +2430,30 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
